--- a/evaluation-pipeline/evaluation/model_sizes.xlsx
+++ b/evaluation-pipeline/evaluation/model_sizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\llm\logging\datasciencystuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\felix\llm\evaluation-pipeline\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246A41E-C147-4C7C-B041-BBA0CEED8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0964D7-CBA0-4685-8BC6-691BEAE59939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6521" yWindow="0" windowWidth="19562" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3037" yWindow="3037" windowWidth="25135" windowHeight="13379" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,15 +450,15 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -474,7 +474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -482,7 +482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -490,7 +490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -498,15 +498,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -514,7 +514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -522,7 +522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -530,7 +530,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -538,7 +538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -546,7 +546,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -554,7 +554,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -562,7 +562,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
